--- a/Bases/CO2.xlsx
+++ b/Bases/CO2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CURSO_ESTADISTICA_2024\Examene_M1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CURSO_ESTADISTICA_2024\Proyecto_Final_Diplomado\Bases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB5AD45-4474-4B70-BB11-DA0C0620D47F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F53A8D-202F-4E11-9D27-DE47C049CA19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -459,7 +459,7 @@
   <dimension ref="A1:E85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
